--- a/DOCUMENTATION/Protokollierung_Arbeitsablauf.xlsx
+++ b/DOCUMENTATION/Protokollierung_Arbeitsablauf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\userserver.rg-bx.schule.suedtirol.it\Users\Students\stbotiva\Home\Desktop\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\EasyScan\DOCUMENTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Datum</t>
   </si>
@@ -149,6 +149,18 @@
   </si>
   <si>
     <t>GastBearbeiten Suche/Löschen/Ausgeben</t>
+  </si>
+  <si>
+    <t>Bug fix bei index.php</t>
+  </si>
+  <si>
+    <t>push des gesamten Projektes, Fertigstellung der Dokumentation</t>
+  </si>
+  <si>
+    <t>eventBearbeiten.php benutzerBearbeiten.php fertigstellen</t>
+  </si>
+  <si>
+    <t>Test auf Webhoster</t>
   </si>
 </sst>
 </file>
@@ -211,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -220,6 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -503,7 +516,7 @@
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,6 +669,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>42878</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
@@ -824,10 +845,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,6 +1000,14 @@
         <v>37</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>42878</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -986,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D35:D36"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,7 +1164,17 @@
       <c r="A18" s="2">
         <v>42877</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>42878</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
